--- a/salesforce sripts.xlsx
+++ b/salesforce sripts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manoj.TRANSITUSNEXGEN.000\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C537C0B-FF05-412B-874B-BF8B798D2952}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A005DA3-DB11-4D24-AB9F-627969184A43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4230" yWindow="2750" windowWidth="14400" windowHeight="10160" xr2:uid="{5DD2F2D0-1E6F-43CE-B1B9-A5D15170E85D}"/>
   </bookViews>

--- a/salesforce sripts.xlsx
+++ b/salesforce sripts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manoj.TRANSITUSNEXGEN.000\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A005DA3-DB11-4D24-AB9F-627969184A43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18643B60-EDD6-4B8E-9046-50E79D9BF01B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4230" yWindow="2750" windowWidth="14400" windowHeight="10160" xr2:uid="{5DD2F2D0-1E6F-43CE-B1B9-A5D15170E85D}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="57">
   <si>
     <t>TestScenarioID</t>
   </si>
@@ -192,9 +192,6 @@
   </si>
   <si>
     <t>dynamicClick</t>
-  </si>
-  <si>
-    <t>buffer</t>
   </si>
   <si>
     <t>Usernmae</t>
@@ -626,7 +623,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91E45AEF-6DFA-47BE-A7CD-E65D6ED07759}">
   <dimension ref="A1:W89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
@@ -765,7 +762,7 @@
         <v>32</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P3" s="3" t="s">
         <v>33</v>
@@ -797,7 +794,7 @@
         <v>32</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P4" s="3" t="s">
         <v>33</v>
@@ -890,10 +887,10 @@
         <v>6</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P7" t="s">
         <v>33</v>

--- a/salesforce sripts.xlsx
+++ b/salesforce sripts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manoj.TRANSITUSNEXGEN.000\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18643B60-EDD6-4B8E-9046-50E79D9BF01B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DDCCA2F-54C7-4097-A0A1-0919ECEB667A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4230" yWindow="2750" windowWidth="14400" windowHeight="10160" xr2:uid="{5DD2F2D0-1E6F-43CE-B1B9-A5D15170E85D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14160" xr2:uid="{5DD2F2D0-1E6F-43CE-B1B9-A5D15170E85D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="63">
   <si>
     <t>TestScenarioID</t>
   </si>
@@ -188,9 +188,6 @@
     <t>Click on Case</t>
   </si>
   <si>
-    <t>Select Value</t>
-  </si>
-  <si>
     <t>dynamicClick</t>
   </si>
   <si>
@@ -201,6 +198,27 @@
   </si>
   <si>
     <t>CaseNumber</t>
+  </si>
+  <si>
+    <t>Close</t>
+  </si>
+  <si>
+    <t>PopUp Close</t>
+  </si>
+  <si>
+    <t>//div[@role='dialog']//a[@title='Close' and text()='Close' and @class='dialogClose']</t>
+  </si>
+  <si>
+    <t>dynamicVerify</t>
+  </si>
+  <si>
+    <t>Verify</t>
+  </si>
+  <si>
+    <t>Click</t>
+  </si>
+  <si>
+    <t>setBuffer</t>
   </si>
 </sst>
 </file>
@@ -621,10 +639,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91E45AEF-6DFA-47BE-A7CD-E65D6ED07759}">
-  <dimension ref="A1:W89"/>
+  <dimension ref="A1:W90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W10" sqref="W10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -636,7 +654,7 @@
     <col min="8" max="8" width="33.1796875" customWidth="1"/>
     <col min="11" max="11" width="19.81640625" customWidth="1"/>
     <col min="15" max="15" width="27.1796875" customWidth="1"/>
-    <col min="17" max="17" width="57.26953125" customWidth="1"/>
+    <col min="17" max="17" width="70.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.35">
@@ -762,7 +780,7 @@
         <v>32</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P3" s="3" t="s">
         <v>33</v>
@@ -794,7 +812,7 @@
         <v>32</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P4" s="3" t="s">
         <v>33</v>
@@ -878,16 +896,16 @@
         <v>6</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="M7">
         <v>6</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="O7" s="3" t="s">
         <v>56</v>
@@ -896,40 +914,107 @@
         <v>33</v>
       </c>
       <c r="Q7" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="R7" s="3" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="W7">
         <v>5000</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="R8" s="3"/>
+      <c r="F8">
+        <v>7</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="M8">
+        <v>7</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="P8" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>50</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>62</v>
+      </c>
       <c r="W8">
         <v>5000</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="R9" s="3"/>
+      <c r="F9">
+        <v>8</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="M9">
+        <v>8</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="P9" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>50</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="W9">
         <v>5000</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
+      <c r="F10">
+        <v>9</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="M10">
+        <v>9</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="P10" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>50</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="W10">
         <v>5000</v>
       </c>
@@ -939,19 +1024,12 @@
       <c r="H11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-      <c r="W11">
-        <v>5000</v>
-      </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.35">
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
-      <c r="Q12" s="6"/>
-      <c r="W12">
-        <v>5000</v>
-      </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.35">
       <c r="G13" s="3"/>
@@ -959,25 +1037,18 @@
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
       <c r="Q13" s="6"/>
-      <c r="W13">
-        <v>5000</v>
-      </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
+      <c r="Q14" s="6"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="R15" s="3"/>
-      <c r="W15">
-        <v>5000</v>
-      </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.35">
       <c r="G16" s="3"/>
@@ -986,694 +1057,501 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="R16" s="3"/>
-      <c r="W16">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="17" spans="7:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="7:18" x14ac:dyDescent="0.35">
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
-      <c r="W17">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="18" spans="7:23" x14ac:dyDescent="0.35">
+      <c r="P17" s="3"/>
+      <c r="R17" s="3"/>
+    </row>
+    <row r="18" spans="7:18" x14ac:dyDescent="0.35">
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
-      <c r="W18">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="19" spans="7:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="7:18" x14ac:dyDescent="0.35">
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-      <c r="Q19" s="4"/>
-      <c r="W19">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="20" spans="7:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="7:18" x14ac:dyDescent="0.35">
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
       <c r="Q20" s="4"/>
-      <c r="W20">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="21" spans="7:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="7:18" x14ac:dyDescent="0.35">
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
-      <c r="Q21" s="5"/>
-      <c r="R21" s="3"/>
-      <c r="W21">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="22" spans="7:23" x14ac:dyDescent="0.35">
+      <c r="Q21" s="4"/>
+    </row>
+    <row r="22" spans="7:18" x14ac:dyDescent="0.35">
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
       <c r="Q22" s="5"/>
-      <c r="W22">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="23" spans="7:23" x14ac:dyDescent="0.35">
+      <c r="R22" s="3"/>
+    </row>
+    <row r="23" spans="7:18" x14ac:dyDescent="0.35">
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
-      <c r="Q23" s="6"/>
-      <c r="W23">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="24" spans="7:23" x14ac:dyDescent="0.35">
+      <c r="Q23" s="5"/>
+    </row>
+    <row r="24" spans="7:18" x14ac:dyDescent="0.35">
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
       <c r="Q24" s="6"/>
-      <c r="W24">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="25" spans="7:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="7:18" x14ac:dyDescent="0.35">
+      <c r="G25" s="3"/>
       <c r="H25" s="3"/>
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="7:23" x14ac:dyDescent="0.35">
-      <c r="G26" s="3"/>
+      <c r="Q25" s="6"/>
+    </row>
+    <row r="26" spans="7:18" x14ac:dyDescent="0.35">
       <c r="H26" s="3"/>
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
-      <c r="P26" s="3"/>
-      <c r="R26" s="3"/>
-      <c r="W26">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="27" spans="7:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="7:18" x14ac:dyDescent="0.35">
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
       <c r="P27" s="3"/>
       <c r="R27" s="3"/>
-      <c r="W27">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="28" spans="7:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="28" spans="7:18" x14ac:dyDescent="0.35">
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
-      <c r="W28">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="29" spans="7:23" x14ac:dyDescent="0.35">
+      <c r="P28" s="3"/>
+      <c r="R28" s="3"/>
+    </row>
+    <row r="29" spans="7:18" x14ac:dyDescent="0.35">
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
       <c r="N29" s="3"/>
       <c r="O29" s="3"/>
-      <c r="W29">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="30" spans="7:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="30" spans="7:18" x14ac:dyDescent="0.35">
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
       <c r="N30" s="3"/>
       <c r="O30" s="3"/>
-      <c r="Q30" s="4"/>
-      <c r="W30">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="31" spans="7:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="31" spans="7:18" x14ac:dyDescent="0.35">
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
       <c r="N31" s="3"/>
       <c r="O31" s="3"/>
       <c r="Q31" s="4"/>
-      <c r="W31">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="32" spans="7:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="32" spans="7:18" x14ac:dyDescent="0.35">
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
       <c r="N32" s="3"/>
       <c r="O32" s="3"/>
-      <c r="W32">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="33" spans="7:23" x14ac:dyDescent="0.35">
+      <c r="Q32" s="4"/>
+    </row>
+    <row r="33" spans="7:18" x14ac:dyDescent="0.35">
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
       <c r="N33" s="3"/>
       <c r="O33" s="3"/>
-      <c r="Q33" s="5"/>
-      <c r="W33">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="34" spans="7:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="34" spans="7:18" x14ac:dyDescent="0.35">
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
       <c r="N34" s="3"/>
       <c r="O34" s="3"/>
-      <c r="Q34" s="6"/>
-      <c r="W34">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="35" spans="7:23" x14ac:dyDescent="0.35">
+      <c r="Q34" s="5"/>
+    </row>
+    <row r="35" spans="7:18" x14ac:dyDescent="0.35">
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
       <c r="N35" s="3"/>
       <c r="O35" s="3"/>
       <c r="Q35" s="6"/>
-      <c r="W35">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="36" spans="7:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="36" spans="7:18" x14ac:dyDescent="0.35">
+      <c r="G36" s="3"/>
       <c r="H36" s="3"/>
       <c r="N36" s="3"/>
       <c r="O36" s="3"/>
-    </row>
-    <row r="37" spans="7:23" x14ac:dyDescent="0.35">
-      <c r="G37" s="3"/>
+      <c r="Q36" s="6"/>
+    </row>
+    <row r="37" spans="7:18" x14ac:dyDescent="0.35">
       <c r="H37" s="3"/>
       <c r="N37" s="3"/>
       <c r="O37" s="3"/>
-      <c r="P37" s="3"/>
-      <c r="R37" s="3"/>
-      <c r="W37">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="38" spans="7:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="38" spans="7:18" x14ac:dyDescent="0.35">
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
       <c r="N38" s="3"/>
       <c r="O38" s="3"/>
       <c r="P38" s="3"/>
       <c r="R38" s="3"/>
-      <c r="W38">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="39" spans="7:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="39" spans="7:18" x14ac:dyDescent="0.35">
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-      <c r="W39">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="40" spans="7:23" x14ac:dyDescent="0.35">
+      <c r="P39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="7:18" x14ac:dyDescent="0.35">
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-      <c r="W40">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="41" spans="7:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="41" spans="7:18" x14ac:dyDescent="0.35">
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
       <c r="N41" s="3"/>
       <c r="O41" s="3"/>
-      <c r="Q41" s="4"/>
-      <c r="W41">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="42" spans="7:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="42" spans="7:18" x14ac:dyDescent="0.35">
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
       <c r="N42" s="3"/>
       <c r="O42" s="3"/>
       <c r="Q42" s="4"/>
-      <c r="W42">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="43" spans="7:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="43" spans="7:18" x14ac:dyDescent="0.35">
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
       <c r="N43" s="3"/>
       <c r="O43" s="3"/>
-      <c r="W43">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="44" spans="7:23" x14ac:dyDescent="0.35">
+      <c r="Q43" s="4"/>
+    </row>
+    <row r="44" spans="7:18" x14ac:dyDescent="0.35">
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
       <c r="N44" s="3"/>
       <c r="O44" s="3"/>
-      <c r="W44">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="45" spans="7:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="45" spans="7:18" x14ac:dyDescent="0.35">
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
       <c r="N45" s="3"/>
       <c r="O45" s="3"/>
-      <c r="Q45" s="7"/>
-      <c r="W45">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="46" spans="7:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="46" spans="7:18" x14ac:dyDescent="0.35">
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
       <c r="N46" s="3"/>
       <c r="O46" s="3"/>
-      <c r="Q46" s="5"/>
-      <c r="W46">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="47" spans="7:23" x14ac:dyDescent="0.35">
+      <c r="Q46" s="7"/>
+    </row>
+    <row r="47" spans="7:18" x14ac:dyDescent="0.35">
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
       <c r="N47" s="3"/>
       <c r="O47" s="3"/>
-      <c r="Q47" s="6"/>
-      <c r="W47">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="48" spans="7:23" x14ac:dyDescent="0.35">
+      <c r="Q47" s="5"/>
+    </row>
+    <row r="48" spans="7:18" x14ac:dyDescent="0.35">
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
       <c r="N48" s="3"/>
       <c r="O48" s="3"/>
       <c r="Q48" s="6"/>
-      <c r="W48">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="49" spans="7:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="49" spans="7:18" x14ac:dyDescent="0.35">
+      <c r="G49" s="3"/>
       <c r="H49" s="3"/>
       <c r="N49" s="3"/>
       <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="7:23" x14ac:dyDescent="0.35">
-      <c r="G50" s="3"/>
+      <c r="Q49" s="6"/>
+    </row>
+    <row r="50" spans="7:18" x14ac:dyDescent="0.35">
       <c r="H50" s="3"/>
       <c r="N50" s="3"/>
       <c r="O50" s="3"/>
-      <c r="P50" s="3"/>
-      <c r="R50" s="3"/>
-      <c r="W50">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="51" spans="7:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="51" spans="7:18" x14ac:dyDescent="0.35">
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
       <c r="N51" s="3"/>
       <c r="O51" s="3"/>
       <c r="P51" s="3"/>
       <c r="R51" s="3"/>
-      <c r="W51">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="52" spans="7:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="52" spans="7:18" x14ac:dyDescent="0.35">
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
       <c r="N52" s="3"/>
       <c r="O52" s="3"/>
-      <c r="W52">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="53" spans="7:23" x14ac:dyDescent="0.35">
+      <c r="P52" s="3"/>
+      <c r="R52" s="3"/>
+    </row>
+    <row r="53" spans="7:18" x14ac:dyDescent="0.35">
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
       <c r="N53" s="3"/>
       <c r="O53" s="3"/>
-      <c r="W53">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="54" spans="7:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="54" spans="7:18" x14ac:dyDescent="0.35">
       <c r="G54" s="3"/>
       <c r="H54" s="3"/>
       <c r="N54" s="3"/>
       <c r="O54" s="3"/>
-      <c r="Q54" s="4"/>
-      <c r="W54">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="55" spans="7:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="55" spans="7:18" x14ac:dyDescent="0.35">
       <c r="G55" s="3"/>
       <c r="H55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="Q55" s="4"/>
-      <c r="W55">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="56" spans="7:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="56" spans="7:18" x14ac:dyDescent="0.35">
       <c r="G56" s="3"/>
       <c r="H56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-      <c r="W56">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="57" spans="7:23" x14ac:dyDescent="0.35">
+      <c r="Q56" s="4"/>
+    </row>
+    <row r="57" spans="7:18" x14ac:dyDescent="0.35">
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
       <c r="N57" s="3"/>
       <c r="O57" s="3"/>
-      <c r="W57">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="58" spans="7:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="58" spans="7:18" x14ac:dyDescent="0.35">
       <c r="G58" s="3"/>
       <c r="H58" s="3"/>
       <c r="N58" s="3"/>
       <c r="O58" s="3"/>
-      <c r="W58">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="59" spans="7:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="59" spans="7:18" x14ac:dyDescent="0.35">
       <c r="G59" s="3"/>
       <c r="H59" s="3"/>
       <c r="N59" s="3"/>
       <c r="O59" s="3"/>
-      <c r="W59">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="60" spans="7:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="60" spans="7:18" x14ac:dyDescent="0.35">
       <c r="G60" s="3"/>
       <c r="H60" s="3"/>
       <c r="N60" s="3"/>
       <c r="O60" s="3"/>
-      <c r="W60">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="61" spans="7:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="61" spans="7:18" x14ac:dyDescent="0.35">
       <c r="G61" s="3"/>
       <c r="H61" s="3"/>
       <c r="N61" s="3"/>
       <c r="O61" s="3"/>
-      <c r="Q61" s="5"/>
-      <c r="W61">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="62" spans="7:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="62" spans="7:18" x14ac:dyDescent="0.35">
       <c r="G62" s="3"/>
       <c r="H62" s="3"/>
       <c r="N62" s="3"/>
       <c r="O62" s="3"/>
-      <c r="Q62" s="6"/>
-      <c r="W62">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="63" spans="7:23" x14ac:dyDescent="0.35">
+      <c r="Q62" s="5"/>
+    </row>
+    <row r="63" spans="7:18" x14ac:dyDescent="0.35">
       <c r="G63" s="3"/>
       <c r="H63" s="3"/>
       <c r="N63" s="3"/>
       <c r="O63" s="3"/>
       <c r="Q63" s="6"/>
-      <c r="W63">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="64" spans="7:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="64" spans="7:18" x14ac:dyDescent="0.35">
+      <c r="G64" s="3"/>
       <c r="H64" s="3"/>
       <c r="N64" s="3"/>
       <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="7:23" x14ac:dyDescent="0.35">
-      <c r="G65" s="3"/>
+      <c r="Q64" s="6"/>
+    </row>
+    <row r="65" spans="7:18" x14ac:dyDescent="0.35">
       <c r="H65" s="3"/>
       <c r="N65" s="3"/>
       <c r="O65" s="3"/>
-      <c r="P65" s="3"/>
-      <c r="R65" s="3"/>
-      <c r="W65">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="66" spans="7:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="66" spans="7:18" x14ac:dyDescent="0.35">
       <c r="G66" s="3"/>
       <c r="H66" s="3"/>
       <c r="N66" s="3"/>
       <c r="O66" s="3"/>
       <c r="P66" s="3"/>
       <c r="R66" s="3"/>
-      <c r="W66">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="67" spans="7:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="67" spans="7:18" x14ac:dyDescent="0.35">
       <c r="G67" s="3"/>
       <c r="H67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-      <c r="W67">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="68" spans="7:23" x14ac:dyDescent="0.35">
+      <c r="P67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="7:18" x14ac:dyDescent="0.35">
       <c r="G68" s="3"/>
       <c r="H68" s="3"/>
       <c r="N68" s="3"/>
       <c r="O68" s="3"/>
-      <c r="W68">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="69" spans="7:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="69" spans="7:18" x14ac:dyDescent="0.35">
       <c r="G69" s="3"/>
       <c r="H69" s="3"/>
       <c r="N69" s="3"/>
       <c r="O69" s="3"/>
-      <c r="Q69" s="4"/>
-      <c r="W69">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="70" spans="7:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="70" spans="7:18" x14ac:dyDescent="0.35">
       <c r="G70" s="3"/>
       <c r="H70" s="3"/>
       <c r="N70" s="3"/>
       <c r="O70" s="3"/>
       <c r="Q70" s="4"/>
-      <c r="W70">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="71" spans="7:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="71" spans="7:18" x14ac:dyDescent="0.35">
       <c r="G71" s="3"/>
       <c r="H71" s="3"/>
       <c r="N71" s="3"/>
       <c r="O71" s="3"/>
-      <c r="W71">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="72" spans="7:23" x14ac:dyDescent="0.35">
+      <c r="Q71" s="4"/>
+    </row>
+    <row r="72" spans="7:18" x14ac:dyDescent="0.35">
       <c r="G72" s="3"/>
       <c r="H72" s="3"/>
       <c r="N72" s="3"/>
       <c r="O72" s="3"/>
-      <c r="W72">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="73" spans="7:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="73" spans="7:18" x14ac:dyDescent="0.35">
       <c r="G73" s="3"/>
       <c r="H73" s="3"/>
       <c r="N73" s="3"/>
       <c r="O73" s="3"/>
-      <c r="W73">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="74" spans="7:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="74" spans="7:18" x14ac:dyDescent="0.35">
       <c r="G74" s="3"/>
       <c r="H74" s="3"/>
       <c r="N74" s="3"/>
       <c r="O74" s="3"/>
-      <c r="Q74" s="5"/>
-      <c r="W74">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="75" spans="7:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="75" spans="7:18" x14ac:dyDescent="0.35">
       <c r="G75" s="3"/>
       <c r="H75" s="3"/>
       <c r="N75" s="3"/>
       <c r="O75" s="3"/>
-      <c r="Q75" s="6"/>
-      <c r="W75">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="76" spans="7:23" x14ac:dyDescent="0.35">
+      <c r="Q75" s="5"/>
+    </row>
+    <row r="76" spans="7:18" x14ac:dyDescent="0.35">
       <c r="G76" s="3"/>
       <c r="H76" s="3"/>
       <c r="N76" s="3"/>
       <c r="O76" s="3"/>
       <c r="Q76" s="6"/>
-      <c r="W76">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="77" spans="7:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="77" spans="7:18" x14ac:dyDescent="0.35">
+      <c r="G77" s="3"/>
       <c r="H77" s="3"/>
       <c r="N77" s="3"/>
       <c r="O77" s="3"/>
-    </row>
-    <row r="78" spans="7:23" x14ac:dyDescent="0.35">
-      <c r="G78" s="3"/>
+      <c r="Q77" s="6"/>
+    </row>
+    <row r="78" spans="7:18" x14ac:dyDescent="0.35">
       <c r="H78" s="3"/>
       <c r="N78" s="3"/>
       <c r="O78" s="3"/>
-      <c r="P78" s="3"/>
-      <c r="R78" s="3"/>
-      <c r="W78">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="79" spans="7:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="79" spans="7:18" x14ac:dyDescent="0.35">
       <c r="G79" s="3"/>
       <c r="H79" s="3"/>
       <c r="N79" s="3"/>
       <c r="O79" s="3"/>
       <c r="P79" s="3"/>
       <c r="R79" s="3"/>
-      <c r="W79">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="80" spans="7:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="80" spans="7:18" x14ac:dyDescent="0.35">
       <c r="G80" s="3"/>
       <c r="H80" s="3"/>
       <c r="N80" s="3"/>
       <c r="O80" s="3"/>
-      <c r="W80">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="81" spans="7:23" x14ac:dyDescent="0.35">
+      <c r="P80" s="3"/>
+      <c r="R80" s="3"/>
+    </row>
+    <row r="81" spans="7:17" x14ac:dyDescent="0.35">
       <c r="G81" s="3"/>
       <c r="H81" s="3"/>
       <c r="N81" s="3"/>
       <c r="O81" s="3"/>
-      <c r="W81">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="82" spans="7:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="82" spans="7:17" x14ac:dyDescent="0.35">
       <c r="G82" s="3"/>
       <c r="H82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-      <c r="Q82" s="4"/>
-      <c r="W82">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="83" spans="7:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="83" spans="7:17" x14ac:dyDescent="0.35">
       <c r="G83" s="3"/>
       <c r="H83" s="3"/>
       <c r="N83" s="3"/>
       <c r="O83" s="3"/>
       <c r="Q83" s="4"/>
-      <c r="W83">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="84" spans="7:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="84" spans="7:17" x14ac:dyDescent="0.35">
       <c r="G84" s="3"/>
       <c r="H84" s="3"/>
       <c r="N84" s="3"/>
       <c r="O84" s="3"/>
-      <c r="W84">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="85" spans="7:23" x14ac:dyDescent="0.35">
+      <c r="Q84" s="4"/>
+    </row>
+    <row r="85" spans="7:17" x14ac:dyDescent="0.35">
       <c r="G85" s="3"/>
       <c r="H85" s="3"/>
       <c r="N85" s="3"/>
       <c r="O85" s="3"/>
-      <c r="W85">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="86" spans="7:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="86" spans="7:17" x14ac:dyDescent="0.35">
       <c r="G86" s="3"/>
       <c r="H86" s="3"/>
       <c r="N86" s="3"/>
       <c r="O86" s="3"/>
-      <c r="W86">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="87" spans="7:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="87" spans="7:17" x14ac:dyDescent="0.35">
       <c r="G87" s="3"/>
       <c r="H87" s="3"/>
       <c r="N87" s="3"/>
       <c r="O87" s="3"/>
-      <c r="Q87" s="5"/>
-      <c r="W87">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="88" spans="7:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="88" spans="7:17" x14ac:dyDescent="0.35">
       <c r="G88" s="3"/>
       <c r="H88" s="3"/>
       <c r="N88" s="3"/>
       <c r="O88" s="3"/>
-      <c r="Q88" s="6"/>
-    </row>
-    <row r="89" spans="7:23" x14ac:dyDescent="0.35">
+      <c r="Q88" s="5"/>
+    </row>
+    <row r="89" spans="7:17" x14ac:dyDescent="0.35">
       <c r="G89" s="3"/>
       <c r="H89" s="3"/>
       <c r="N89" s="3"/>
       <c r="O89" s="3"/>
       <c r="Q89" s="6"/>
     </row>
+    <row r="90" spans="7:17" x14ac:dyDescent="0.35">
+      <c r="G90" s="3"/>
+      <c r="H90" s="3"/>
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+      <c r="Q90" s="6"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
